--- a/practice/160920/설계.xlsx
+++ b/practice/160920/설계.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>헤더링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>링크1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +94,10 @@
   </si>
   <si>
     <t>리스트+링크3</t>
+  </si>
+  <si>
+    <t>날려서 abs 위치로 넣음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,107 +470,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.4">
@@ -573,6 +584,11 @@
     <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
